--- a/va_facility_data_2025-02-20/Alamogordo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Alamogordo%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Alamogordo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Alamogordo%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rbace6b57f11c4ad3b72e9d8e03f02ce8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7801cf8baaeb4b4cb15da4f0e39a65a0"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6f2521e4e0c240bf99a1d2546b026587"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb58de0a792b24699bb4c513de4a38487"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3b250530c5f44f0285133c501bcb859a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ref6e36cbbfd147de846f13bb77e2d261"/>
   </x:sheets>
 </x:workbook>
 </file>
